--- a/Список элементов.xlsx
+++ b/Список элементов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>1.</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>подложка для реле времени</t>
+  </si>
+  <si>
+    <t>Розетка PG-08 Autonics с переходом цокольного подключения, артикул 00000011598</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +531,7 @@
       </c>
       <c r="I1">
         <f>SUM(F:F)</f>
-        <v>25327</v>
+        <v>25727</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -852,97 +855,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>400</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
